--- a/Welche Diagnosen wurden zuerst gestellt, R2.xlsx
+++ b/Welche Diagnosen wurden zuerst gestellt, R2.xlsx
@@ -384,7 +384,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.009182736455463728</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>9.666038374172346e-05</v>
+        <v>0.00952046900836799</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.0003383113430960321</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.002948141704122565</v>
+        <v>0.000350754121360926</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>4.833019187086173e-05</v>
+        <v>0.003056571629002355</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.0004349717268377555</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.00222318882605964</v>
+        <v>0.0004509695846069048</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.0001449905756125852</v>
+        <v>0.002304955654657514</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>4.833019187086173e-05</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.04663863515538157</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.003044802087864289</v>
+        <v>0.0483539610161848</v>
       </c>
     </row>
     <row r="17">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>4.833019187086173e-05</v>
+        <v>0.003156787092248334</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>9.666038374172346e-05</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="20">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.0001933207674834469</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.005896283408245131</v>
+        <v>0.0002004309264919577</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>4.833019187086173e-05</v>
+        <v>0.00611314325800471</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>9.666038374172346e-05</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.001208254796771543</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="26">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.0006766226861920642</v>
+        <v>0.001252693290574736</v>
       </c>
     </row>
     <row r="28">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.0004833019187086173</v>
+        <v>0.0007015082427218519</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>4.833019187086173e-05</v>
+        <v>0.0005010773162298943</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.0005799623024503408</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>4.833019187086173e-05</v>
+        <v>0.0006012927794758731</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>9.666038374172346e-05</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>4.833019187086173e-05</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.0008699434536755111</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.0004349717268377555</v>
+        <v>0.0009019391692138097</v>
       </c>
     </row>
     <row r="37">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>9.666038374172346e-05</v>
+        <v>0.0004509695846069048</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.001594896331738437</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.0004349717268377555</v>
+        <v>0.001653555143558651</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.001498235947996714</v>
+        <v>0.0004509695846069048</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>4.833019187086173e-05</v>
+        <v>0.001553339680312672</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.0004349717268377555</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.0004349717268377555</v>
+        <v>0.0004509695846069048</v>
       </c>
     </row>
     <row r="45">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.0004349717268377555</v>
+        <v>0.0004509695846069048</v>
       </c>
     </row>
     <row r="46">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.0006766226861920642</v>
+        <v>0.0004509695846069048</v>
       </c>
     </row>
     <row r="47">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.006621236286308056</v>
+        <v>0.0007015082427218519</v>
       </c>
     </row>
     <row r="48">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.007781160891208738</v>
+        <v>0.006864759232349552</v>
       </c>
     </row>
     <row r="49">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>9.666038374172346e-05</v>
+        <v>0.008067344791301298</v>
       </c>
     </row>
     <row r="50">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.0002416509593543086</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="51">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>9.666038374172346e-05</v>
+        <v>0.0002505386581149472</v>
       </c>
     </row>
     <row r="52">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.0007249528780629259</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="53">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.001884877482963607</v>
+        <v>0.0007516159743448414</v>
       </c>
     </row>
     <row r="54">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.007249528780629259</v>
+        <v>0.001954201533296587</v>
       </c>
     </row>
     <row r="55">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.0007732830699337876</v>
+        <v>0.007516159743448414</v>
       </c>
     </row>
     <row r="56">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.003141462471606012</v>
+        <v>0.0008017237059678308</v>
       </c>
     </row>
     <row r="57">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.0001933207674834469</v>
+        <v>0.003257002555494313</v>
       </c>
     </row>
     <row r="58">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.004784688995215311</v>
+        <v>0.0002004309264919577</v>
       </c>
     </row>
     <row r="59">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.008989415687980281</v>
+        <v>0.004960665430675954</v>
       </c>
     </row>
     <row r="60">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.0006282924943212025</v>
+        <v>0.009320038081876033</v>
       </c>
     </row>
     <row r="61">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.0004833019187086173</v>
+        <v>0.0006514005110988626</v>
       </c>
     </row>
     <row r="62">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>9.666038374172346e-05</v>
+        <v>0.0005010773162298943</v>
       </c>
     </row>
     <row r="63">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.0003383113430960321</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="65">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>4.833019187086173e-05</v>
+        <v>0.000350754121360926</v>
       </c>
     </row>
     <row r="66">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>0.000531632110579479</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>4.833019187086173e-05</v>
+        <v>0.0005511850478528837</v>
       </c>
     </row>
     <row r="70">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.0004349717268377555</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>0.004639698419602726</v>
+        <v>0.0004509695846069048</v>
       </c>
     </row>
     <row r="72">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.002851481320380842</v>
+        <v>0.004810342235806985</v>
       </c>
     </row>
     <row r="73">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.001208254796771543</v>
+        <v>0.002956356165756376</v>
       </c>
     </row>
     <row r="74">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>9.666038374172346e-05</v>
+        <v>0.001252693290574736</v>
       </c>
     </row>
     <row r="75">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>0.0003383113430960321</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="76">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.0003383113430960321</v>
+        <v>0.000350754121360926</v>
       </c>
     </row>
     <row r="77">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.0007249528780629259</v>
+        <v>0.000350754121360926</v>
       </c>
     </row>
     <row r="78">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.002368179401672225</v>
+        <v>0.0007516159743448414</v>
       </c>
     </row>
     <row r="79">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>4.833019187086173e-05</v>
+        <v>0.002455278849526482</v>
       </c>
     </row>
     <row r="80">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.0003383113430960321</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.0004833019187086173</v>
+        <v>0.000350754121360926</v>
       </c>
     </row>
     <row r="82">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.0001449905756125852</v>
+        <v>0.0005010773162298943</v>
       </c>
     </row>
     <row r="83">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>9.666038374172346e-05</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="86">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>0.0007249528780629259</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="87">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>0.0001449905756125852</v>
+        <v>0.0007516159743448414</v>
       </c>
     </row>
     <row r="88">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>0.002851481320380842</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="89">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.004301387076506694</v>
+        <v>0.002956356165756376</v>
       </c>
     </row>
     <row r="90">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.0007732830699337876</v>
+        <v>0.004459588114446059</v>
       </c>
     </row>
     <row r="91">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.002174858634188778</v>
+        <v>0.0008017237059678308</v>
       </c>
     </row>
     <row r="92">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>0.0001449905756125852</v>
+        <v>0.002254847923034524</v>
       </c>
     </row>
     <row r="94">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.01164757624087768</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="95">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.0039147455415398</v>
+        <v>0.01207596332114045</v>
       </c>
     </row>
     <row r="96">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.001546566139867575</v>
+        <v>0.004058726261462144</v>
       </c>
     </row>
     <row r="97">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.007201198588758398</v>
+        <v>0.001603447411935662</v>
       </c>
     </row>
     <row r="98">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>0.001353245372384128</v>
+        <v>0.007466052011825424</v>
       </c>
     </row>
     <row r="99">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.001594896331738437</v>
+        <v>0.001403016485443704</v>
       </c>
     </row>
     <row r="100">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.003093132279735151</v>
+        <v>0.001653555143558651</v>
       </c>
     </row>
     <row r="101">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.001159924604900682</v>
+        <v>0.003206894823871323</v>
       </c>
     </row>
     <row r="102">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.305833454158813</v>
+        <v>0.001202585558951746</v>
       </c>
     </row>
     <row r="103">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.04021071963655696</v>
+        <v>0.3170817257102771</v>
       </c>
     </row>
     <row r="104">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.06442414576385869</v>
+        <v>0.0416896327103272</v>
       </c>
     </row>
     <row r="105">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.01077763278720217</v>
+        <v>0.06679360625344491</v>
       </c>
     </row>
     <row r="106">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.04262722923010005</v>
+        <v>0.01117402415192664</v>
       </c>
     </row>
     <row r="107">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>0.0002899811512251704</v>
+        <v>0.04419501929147668</v>
       </c>
     </row>
     <row r="108">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>0.0008216132618046494</v>
+        <v>0.0003006463897379365</v>
       </c>
     </row>
     <row r="109">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>9.666038374172346e-05</v>
+        <v>0.0008518314375908203</v>
       </c>
     </row>
     <row r="110">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>0.0008216132618046494</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="111">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.008844425112367696</v>
+        <v>0.0008518314375908203</v>
       </c>
     </row>
     <row r="112">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>0.001208254796771543</v>
+        <v>0.009169714887007066</v>
       </c>
     </row>
     <row r="113">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.006186264559470301</v>
+        <v>0.001252693290574736</v>
       </c>
     </row>
     <row r="114">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.0002416509593543086</v>
+        <v>0.006413789647742646</v>
       </c>
     </row>
     <row r="115">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.00280315112850998</v>
+        <v>0.0002505386581149472</v>
       </c>
     </row>
     <row r="116">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.0003383113430960321</v>
+        <v>0.002906248434133387</v>
       </c>
     </row>
     <row r="117">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.00420472669276497</v>
+        <v>0.000350754121360926</v>
       </c>
     </row>
     <row r="118">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.001014934029288096</v>
+        <v>0.00435937265120008</v>
       </c>
     </row>
     <row r="120">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.001208254796771543</v>
+        <v>0.001052262364082778</v>
       </c>
     </row>
     <row r="121">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.000531632110579479</v>
+        <v>0.001252693290574736</v>
       </c>
     </row>
     <row r="122">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.001159924604900682</v>
+        <v>0.0005511850478528837</v>
       </c>
     </row>
     <row r="123">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>4.833019187086173e-05</v>
+        <v>0.001202585558951746</v>
       </c>
     </row>
     <row r="124">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>0.003238122855347736</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.0004349717268377555</v>
+        <v>0.003357218018740292</v>
       </c>
     </row>
     <row r="126">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.000531632110579479</v>
+        <v>0.0004509695846069048</v>
       </c>
     </row>
     <row r="127">
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.000531632110579479</v>
+        <v>0.0005511850478528837</v>
       </c>
     </row>
     <row r="128">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.001304915180513267</v>
+        <v>0.0005511850478528837</v>
       </c>
     </row>
     <row r="129">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.0006766226861920642</v>
+        <v>0.001352908753820715</v>
       </c>
     </row>
     <row r="130">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>0.0001933207674834469</v>
+        <v>0.0007015082427218519</v>
       </c>
     </row>
     <row r="131">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>0.002368179401672225</v>
+        <v>0.0002004309264919577</v>
       </c>
     </row>
     <row r="132">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>0.003528104006572906</v>
+        <v>0.002455278849526482</v>
       </c>
     </row>
     <row r="133">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.004398047460248417</v>
+        <v>0.003657864408478228</v>
       </c>
     </row>
     <row r="134">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.0006282924943212025</v>
+        <v>0.004559803577692038</v>
       </c>
     </row>
     <row r="135">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.001449905756125852</v>
+        <v>0.0006514005110988626</v>
       </c>
     </row>
     <row r="136">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.003576434198443768</v>
+        <v>0.001503231948689683</v>
       </c>
     </row>
     <row r="137">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>0.02000869943453676</v>
+        <v>0.003707972140101217</v>
       </c>
     </row>
     <row r="138">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.002609830361026533</v>
+        <v>0.02074460089191762</v>
       </c>
     </row>
     <row r="139">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>0.0007732830699337876</v>
+        <v>0.002705817507641429</v>
       </c>
     </row>
     <row r="140">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.005412981489536514</v>
+        <v>0.0008017237059678308</v>
       </c>
     </row>
     <row r="141">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>0.001256584988642405</v>
+        <v>0.005612065941774816</v>
       </c>
     </row>
     <row r="142">
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>4.833019187086173e-05</v>
+        <v>0.001302801022197725</v>
       </c>
     </row>
     <row r="143">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>0.0002416509593543086</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="144">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.001353245372384128</v>
+        <v>0.0002505386581149472</v>
       </c>
     </row>
     <row r="145">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>0.0001449905756125852</v>
+        <v>0.001403016485443704</v>
       </c>
     </row>
     <row r="146">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>4.833019187086173e-05</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="147">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>0.00222318882605964</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="148">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>0.0003866415349668938</v>
+        <v>0.002304955654657514</v>
       </c>
     </row>
     <row r="149">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>0.0001449905756125852</v>
+        <v>0.0004008618529839154</v>
       </c>
     </row>
     <row r="150">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>0.007732830699337876</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="151">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>0.001014934029288096</v>
+        <v>0.008017237059678309</v>
       </c>
     </row>
     <row r="152">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>9.666038374172346e-05</v>
+        <v>0.001052262364082778</v>
       </c>
     </row>
     <row r="154">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.001304915180513267</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="155">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>4.833019187086173e-05</v>
+        <v>0.001352908753820715</v>
       </c>
     </row>
     <row r="157">
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>0.0001449905756125852</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>4.833019187086173e-05</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="169">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>4.833019187086173e-05</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>9.666038374172346e-05</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>0.0001933207674834469</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="178">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>0.0001449905756125852</v>
+        <v>0.0002004309264919577</v>
       </c>
     </row>
     <row r="179">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>0.0002899811512251704</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="183">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>0.000531632110579479</v>
+        <v>0.0003006463897379365</v>
       </c>
     </row>
     <row r="184">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>0.0003866415349668938</v>
+        <v>0.0005511850478528837</v>
       </c>
     </row>
     <row r="185">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>0.05601469237832874</v>
+        <v>0.0004008618529839154</v>
       </c>
     </row>
     <row r="187">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.008457783577400802</v>
+        <v>0.05807486095104475</v>
       </c>
     </row>
     <row r="188">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.001304915180513267</v>
+        <v>0.008768853034023149</v>
       </c>
     </row>
     <row r="189">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>0.00169155671548016</v>
+        <v>0.001352908753820715</v>
       </c>
     </row>
     <row r="190">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>0.001353245372384128</v>
+        <v>0.00175377060680463</v>
       </c>
     </row>
     <row r="191">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>0.002319849209801363</v>
+        <v>0.001403016485443704</v>
       </c>
     </row>
     <row r="192">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>0.001449905756125852</v>
+        <v>0.002405171117903492</v>
       </c>
     </row>
     <row r="193">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.03450775699579527</v>
+        <v>0.001503231948689683</v>
       </c>
     </row>
     <row r="194">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>0.00111159441302982</v>
+        <v>0.03577692037881445</v>
       </c>
     </row>
     <row r="195">
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>4.833019187086173e-05</v>
+        <v>0.001152477827328757</v>
       </c>
     </row>
     <row r="196">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>4.833019187086173e-05</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="197">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>0.005654632448890822</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>4.833019187086173e-05</v>
+        <v>0.005862604599889763</v>
       </c>
     </row>
     <row r="199">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>0.0004349717268377555</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="200">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>0.0001933207674834469</v>
+        <v>0.0004509695846069048</v>
       </c>
     </row>
     <row r="201">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.002609830361026533</v>
+        <v>0.0002004309264919577</v>
       </c>
     </row>
     <row r="202">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>0.0002416509593543086</v>
+        <v>0.002705817507641429</v>
       </c>
     </row>
     <row r="203">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>0.0006766226861920642</v>
+        <v>0.0002505386581149472</v>
       </c>
     </row>
     <row r="204">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>0.0002899811512251704</v>
+        <v>0.0007015082427218519</v>
       </c>
     </row>
     <row r="205">
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="C205">
-        <v>0.0004833019187086173</v>
+        <v>0.0003006463897379365</v>
       </c>
     </row>
     <row r="206">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>0.0001449905756125852</v>
+        <v>0.0005010773162298943</v>
       </c>
     </row>
     <row r="207">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>0.0005799623024503408</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="208">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>0.0002416509593543086</v>
+        <v>0.0006012927794758731</v>
       </c>
     </row>
     <row r="209">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>0.0001933207674834469</v>
+        <v>0.0002505386581149472</v>
       </c>
     </row>
     <row r="210">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>0.001304915180513267</v>
+        <v>0.0002004309264919577</v>
       </c>
     </row>
     <row r="211">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>0.0001449905756125852</v>
+        <v>0.001352908753820715</v>
       </c>
     </row>
     <row r="212">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>9.666038374172346e-05</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="213">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>9.666038374172346e-05</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="215">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>0.0002899811512251704</v>
+        <v>0.0001002154632459789</v>
       </c>
     </row>
     <row r="217">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>0.0001449905756125852</v>
+        <v>0.0003006463897379365</v>
       </c>
     </row>
     <row r="218">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>0.002319849209801363</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="219">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>0.0001449905756125852</v>
+        <v>0.002405171117903492</v>
       </c>
     </row>
     <row r="220">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>0.004301387076506694</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="221">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>4.833019187086173e-05</v>
+        <v>0.004459588114446059</v>
       </c>
     </row>
     <row r="223">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>0.0001449905756125852</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
     <row r="229">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>0.02498670919723551</v>
+        <v>0.0001503231948689683</v>
       </c>
     </row>
     <row r="230">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>0.02807984147697066</v>
+        <v>0.02590569724908554</v>
       </c>
     </row>
     <row r="231">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>0.0002899811512251704</v>
+        <v>0.02911259207295686</v>
       </c>
     </row>
     <row r="232">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>0.001014934029288096</v>
+        <v>0.0003006463897379365</v>
       </c>
     </row>
     <row r="233">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>0.0002899811512251704</v>
+        <v>0.001052262364082778</v>
       </c>
     </row>
     <row r="234">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>0.003963075733410662</v>
+        <v>0.0003006463897379365</v>
       </c>
     </row>
     <row r="235">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>0.006089604175728578</v>
+        <v>0.004108833993085133</v>
       </c>
     </row>
     <row r="236">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>0.02406843555168914</v>
+        <v>0.006313574184496668</v>
       </c>
     </row>
     <row r="237">
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>4.833019187086173e-05</v>
+        <v>0.02495365034824874</v>
       </c>
     </row>
     <row r="238">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>0.03557102121695423</v>
+        <v>5.010773162298943e-05</v>
       </c>
     </row>
   </sheetData>

--- a/Welche Diagnosen wurden zuerst gestellt, R2.xlsx
+++ b/Welche Diagnosen wurden zuerst gestellt, R2.xlsx
@@ -384,7 +384,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.0001002154632459789</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.00952046900836799</v>
+        <v>0.00949530395293632</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.000350754121360926</v>
+        <v>0.0003096294767261843</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.003056571629002355</v>
+        <v>0.003147899680049541</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.0004509695846069048</v>
+        <v>0.0004644442150892765</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.002304955654657514</v>
+        <v>0.002322221075446382</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.0483539610161848</v>
+        <v>0.05077923418309423</v>
       </c>
     </row>
     <row r="17">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.003156787092248334</v>
+        <v>0.003251109505624935</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="20">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.0002004309264919577</v>
+        <v>0.0002064196511507896</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.00611314325800471</v>
+        <v>0.006244194447311384</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.0001002154632459789</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="26">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.001252693290574736</v>
+        <v>0.001135308081329343</v>
       </c>
     </row>
     <row r="28">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.0007015082427218519</v>
+        <v>0.0006708638662400661</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.0005010773162298943</v>
+        <v>0.0005160491278769739</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.0006012927794758731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>5.010773162298943e-05</v>
+        <v>0.0004644442150892765</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.0009019391692138097</v>
+        <v>0.0008772835173908556</v>
       </c>
     </row>
     <row r="37">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.0004509695846069048</v>
+        <v>0.0004128393023015791</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.001653555143558651</v>
+        <v>0.001599752296418619</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.0004509695846069048</v>
+        <v>0.0004128393023015791</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.001553339680312672</v>
+        <v>0.001496542470843224</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.0004509695846069048</v>
+        <v>0.0004128393023015791</v>
       </c>
     </row>
     <row r="45">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.0004509695846069048</v>
+        <v>0.0004128393023015791</v>
       </c>
     </row>
     <row r="46">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.0004509695846069048</v>
+        <v>0.0004128393023015791</v>
       </c>
     </row>
     <row r="47">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.0007015082427218519</v>
+        <v>0.0007224687790277634</v>
       </c>
     </row>
     <row r="48">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.006864759232349552</v>
+        <v>0.006605428836825266</v>
       </c>
     </row>
     <row r="49">
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>0.008067344791301298</v>
+        <v>0.006863453400763752</v>
       </c>
     </row>
     <row r="50">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="51">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.0002505386581149472</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="52">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="53">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.0007516159743448414</v>
+        <v>0.0006708638662400661</v>
       </c>
     </row>
     <row r="54">
@@ -1060,7 +1060,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.001954201533296587</v>
+        <v>0.001651357209206317</v>
       </c>
     </row>
     <row r="55">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.007516159743448414</v>
+        <v>0.006966663226339148</v>
       </c>
     </row>
     <row r="56">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.0008017237059678308</v>
+        <v>0.0007224687790277634</v>
       </c>
     </row>
     <row r="57">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.003257002555494313</v>
+        <v>0.003044689854474146</v>
       </c>
     </row>
     <row r="58">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.0002004309264919577</v>
+        <v>0.0002064196511507896</v>
       </c>
     </row>
     <row r="59">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.004960665430675954</v>
+        <v>0.004592837238105068</v>
       </c>
     </row>
     <row r="60">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.009320038081876033</v>
+        <v>0.009030859737847043</v>
       </c>
     </row>
     <row r="61">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.0006514005110988626</v>
+        <v>0.0006192589534523686</v>
       </c>
     </row>
     <row r="62">
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>0.0005010773162298943</v>
+        <v>0.0004128393023015791</v>
       </c>
     </row>
     <row r="63">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="65">
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>0.000350754121360926</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="66">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.0005511850478528837</v>
+        <v>0.0005676540406646713</v>
       </c>
     </row>
     <row r="70">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>0.0004509695846069048</v>
+        <v>0.0002580245639384869</v>
       </c>
     </row>
     <row r="72">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.004810342235806985</v>
+        <v>0.004386417586954278</v>
       </c>
     </row>
     <row r="73">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.002956356165756376</v>
+        <v>0.002838270203323356</v>
       </c>
     </row>
     <row r="74">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>0.001252693290574736</v>
+        <v>0.001135308081329343</v>
       </c>
     </row>
     <row r="75">
@@ -1333,7 +1333,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="76">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.000350754121360926</v>
+        <v>0.0003096294767261843</v>
       </c>
     </row>
     <row r="77">
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.000350754121360926</v>
+        <v>0.0003612343895138817</v>
       </c>
     </row>
     <row r="78">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.0007516159743448414</v>
+        <v>0.0006708638662400661</v>
       </c>
     </row>
     <row r="79">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.002455278849526482</v>
+        <v>0.002580245639384869</v>
       </c>
     </row>
     <row r="80">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.000350754121360926</v>
+        <v>0.0002580245639384869</v>
       </c>
     </row>
     <row r="82">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.0005010773162298943</v>
+        <v>0.0004644442150892765</v>
       </c>
     </row>
     <row r="83">
@@ -1463,7 +1463,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>0.0001503231948689683</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="86">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="87">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>0.0007516159743448414</v>
+        <v>0.0005676540406646713</v>
       </c>
     </row>
     <row r="88">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="89">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.002956356165756376</v>
+        <v>0.002889875116111054</v>
       </c>
     </row>
     <row r="90">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.004459588114446059</v>
+        <v>0.004489627412529673</v>
       </c>
     </row>
     <row r="91">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.0008017237059678308</v>
+        <v>0.0008256786046031583</v>
       </c>
     </row>
     <row r="92">
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>0.002254847923034524</v>
+        <v>0.002064196511507895</v>
       </c>
     </row>
     <row r="94">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="95">
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.01207596332114045</v>
+        <v>0.01073382185984106</v>
       </c>
     </row>
     <row r="96">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.004058726261462144</v>
+        <v>0.003663948807926515</v>
       </c>
     </row>
     <row r="97">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.001603447411935662</v>
+        <v>0.001599752296418619</v>
       </c>
     </row>
     <row r="98">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>0.007466052011825424</v>
+        <v>0.006502219011249871</v>
       </c>
     </row>
     <row r="99">
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.001403016485443704</v>
+        <v>0.001290122819692435</v>
       </c>
     </row>
     <row r="100">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.001653555143558651</v>
+        <v>0.001651357209206317</v>
       </c>
     </row>
     <row r="101">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.003206894823871323</v>
+        <v>0.002838270203323356</v>
       </c>
     </row>
     <row r="102">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.001202585558951746</v>
+        <v>0.001238517906904737</v>
       </c>
     </row>
     <row r="103">
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.3170817257102771</v>
+        <v>0.3251625554752812</v>
       </c>
     </row>
     <row r="104">
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.0416896327103272</v>
+        <v>0.04257405304985035</v>
       </c>
     </row>
     <row r="105">
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.06679360625344491</v>
+        <v>0.06858292909484982</v>
       </c>
     </row>
     <row r="106">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.01117402415192664</v>
+        <v>0.01150789555165652</v>
       </c>
     </row>
     <row r="107">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>0.04419501929147668</v>
+        <v>0.04453503973578285</v>
       </c>
     </row>
     <row r="108">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>0.0003006463897379365</v>
+        <v>0.0003096294767261843</v>
       </c>
     </row>
     <row r="109">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>0.0008518314375908203</v>
+        <v>0.0006708638662400661</v>
       </c>
     </row>
     <row r="110">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="111">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.0008518314375908203</v>
+        <v>0.0008256786046031583</v>
       </c>
     </row>
     <row r="112">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>0.009169714887007066</v>
+        <v>0.009443699040148622</v>
       </c>
     </row>
     <row r="113">
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.001252693290574736</v>
+        <v>0.001290122819692435</v>
       </c>
     </row>
     <row r="114">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.006413789647742646</v>
+        <v>0.006244194447311384</v>
       </c>
     </row>
     <row r="115">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.0002505386581149472</v>
+        <v>0.0002064196511507896</v>
       </c>
     </row>
     <row r="116">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.002906248434133387</v>
+        <v>0.002889875116111054</v>
       </c>
     </row>
     <row r="117">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.000350754121360926</v>
+        <v>0.0003612343895138817</v>
       </c>
     </row>
     <row r="118">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.00435937265120008</v>
+        <v>0.004076788110228094</v>
       </c>
     </row>
     <row r="120">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.001052262364082778</v>
+        <v>0.001083703168541645</v>
       </c>
     </row>
     <row r="121">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.001252693290574736</v>
+        <v>0.001135308081329343</v>
       </c>
     </row>
     <row r="122">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.0005511850478528837</v>
+        <v>0.0005676540406646713</v>
       </c>
     </row>
     <row r="123">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>0.001202585558951746</v>
+        <v>0.00118691299411704</v>
       </c>
     </row>
     <row r="124">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.003357218018740292</v>
+        <v>0.003251109505624935</v>
       </c>
     </row>
     <row r="126">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.0004509695846069048</v>
+        <v>0.0004128393023015791</v>
       </c>
     </row>
     <row r="127">
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.0005511850478528837</v>
+        <v>0.0005160491278769739</v>
       </c>
     </row>
     <row r="128">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.0005511850478528837</v>
+        <v>0.0005160491278769739</v>
       </c>
     </row>
     <row r="129">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.001352908753820715</v>
+        <v>0.001444937558055527</v>
       </c>
     </row>
     <row r="130">
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>0.0007015082427218519</v>
+        <v>0.0006708638662400661</v>
       </c>
     </row>
     <row r="131">
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>0.0002004309264919577</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="132">
@@ -2074,7 +2074,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>0.002455278849526482</v>
+        <v>0.00216740633708329</v>
       </c>
     </row>
     <row r="133">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.003657864408478228</v>
+        <v>0.003509134069563422</v>
       </c>
     </row>
     <row r="134">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.004559803577692038</v>
+        <v>0.004231602848591186</v>
       </c>
     </row>
     <row r="135">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.0006514005110988626</v>
+        <v>0.0005676540406646713</v>
       </c>
     </row>
     <row r="136">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.001503231948689683</v>
+        <v>0.001496542470843224</v>
       </c>
     </row>
     <row r="137">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>0.003707972140101217</v>
+        <v>0.003251109505624935</v>
       </c>
     </row>
     <row r="138">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.02074460089191762</v>
+        <v>0.02043554546392817</v>
       </c>
     </row>
     <row r="139">
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>0.002705817507641429</v>
+        <v>0.002528640726597172</v>
       </c>
     </row>
     <row r="140">
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.0008017237059678308</v>
+        <v>0.0007740736918154608</v>
       </c>
     </row>
     <row r="141">
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>0.005612065941774816</v>
+        <v>0.005315306017132831</v>
       </c>
     </row>
     <row r="142">
@@ -2204,7 +2204,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>0.001302801022197725</v>
+        <v>0.000928888430178553</v>
       </c>
     </row>
     <row r="143">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="144">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.0002505386581149472</v>
+        <v>0.0002580245639384869</v>
       </c>
     </row>
     <row r="145">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>0.001403016485443704</v>
+        <v>0.00139333264526783</v>
       </c>
     </row>
     <row r="146">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="147">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="148">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>0.002304955654657514</v>
+        <v>0.001909381773144803</v>
       </c>
     </row>
     <row r="149">
@@ -2295,7 +2295,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>0.0004008618529839154</v>
+        <v>0.0004128393023015791</v>
       </c>
     </row>
     <row r="150">
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="151">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>0.008017237059678309</v>
+        <v>0.007534317267003819</v>
       </c>
     </row>
     <row r="152">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>0.001052262364082778</v>
+        <v>0.0007740736918154608</v>
       </c>
     </row>
     <row r="154">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="155">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>0.001352908753820715</v>
+        <v>0.00139333264526783</v>
       </c>
     </row>
     <row r="157">
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="169">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="175">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="176">
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="178">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>0.0002004309264919577</v>
+        <v>0.0002064196511507896</v>
       </c>
     </row>
     <row r="179">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>0.0001503231948689683</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="183">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>0.0003006463897379365</v>
+        <v>0.0002580245639384869</v>
       </c>
     </row>
     <row r="184">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>0.0005511850478528837</v>
+        <v>0.0004644442150892765</v>
       </c>
     </row>
     <row r="185">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>0.0004008618529839154</v>
+        <v>0.0004128393023015791</v>
       </c>
     </row>
     <row r="187">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.05807486095104475</v>
+        <v>0.05944885953142739</v>
       </c>
     </row>
     <row r="188">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.008768853034023149</v>
+        <v>0.008824440086696254</v>
       </c>
     </row>
     <row r="189">
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>0.001352908753820715</v>
+        <v>0.00139333264526783</v>
       </c>
     </row>
     <row r="190">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>0.00175377060680463</v>
+        <v>0.001651357209206317</v>
       </c>
     </row>
     <row r="191">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>0.001403016485443704</v>
+        <v>0.001341727732480132</v>
       </c>
     </row>
     <row r="192">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>0.002405171117903492</v>
+        <v>0.00237382598823408</v>
       </c>
     </row>
     <row r="193">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.001503231948689683</v>
+        <v>0.00139333264526783</v>
       </c>
     </row>
     <row r="194">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>0.03577692037881445</v>
+        <v>0.03700072246877903</v>
       </c>
     </row>
     <row r="195">
@@ -2893,7 +2893,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>0.001152477827328757</v>
+        <v>0.001083703168541645</v>
       </c>
     </row>
     <row r="196">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>5.010773162298943e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
     <row r="198">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>0.005862604599889763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>5.010773162298943e-05</v>
+        <v>0.005882960057797502</v>
       </c>
     </row>
     <row r="200">
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>0.0004509695846069048</v>
+        <v>0.0003612343895138817</v>
       </c>
     </row>
     <row r="201">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>0.0002004309264919577</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="202">
@@ -2984,7 +2984,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>0.002705817507641429</v>
+        <v>0.002735060377747961</v>
       </c>
     </row>
     <row r="203">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>0.0002505386581149472</v>
+        <v>0.0002580245639384869</v>
       </c>
     </row>
     <row r="204">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>0.0007015082427218519</v>
+        <v>0.0005676540406646713</v>
       </c>
     </row>
     <row r="205">
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="C205">
-        <v>0.0003006463897379365</v>
+        <v>0.0003096294767261843</v>
       </c>
     </row>
     <row r="206">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>0.0005010773162298943</v>
+        <v>0.0004644442150892765</v>
       </c>
     </row>
     <row r="207">
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="208">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>0.0006012927794758731</v>
+        <v>0.0006192589534523686</v>
       </c>
     </row>
     <row r="209">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>0.0002505386581149472</v>
+        <v>0.0002580245639384869</v>
       </c>
     </row>
     <row r="210">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>0.0002004309264919577</v>
+        <v>0.0002064196511507896</v>
       </c>
     </row>
     <row r="211">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>0.001352908753820715</v>
+        <v>0.001238517906904737</v>
       </c>
     </row>
     <row r="212">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="213">
@@ -3140,7 +3140,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="215">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>0.0001002154632459789</v>
+        <v>0.0001032098255753948</v>
       </c>
     </row>
     <row r="217">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>0.0003006463897379365</v>
+        <v>0.0003096294767261843</v>
       </c>
     </row>
     <row r="218">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="219">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>0.002405171117903492</v>
+        <v>0.002322221075446382</v>
       </c>
     </row>
     <row r="220">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="221">
@@ -3244,7 +3244,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>0.004459588114446059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>5.010773162298943e-05</v>
+        <v>0.004438022499741975</v>
       </c>
     </row>
     <row r="229">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>0.0001503231948689683</v>
+        <v>0.0001548147383630922</v>
       </c>
     </row>
     <row r="230">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>0.02590569724908554</v>
+        <v>0.0256476416554856</v>
       </c>
     </row>
     <row r="231">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>0.02911259207295686</v>
+        <v>0.02735060377747962</v>
       </c>
     </row>
     <row r="232">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>0.0003006463897379365</v>
+        <v>0.0002064196511507896</v>
       </c>
     </row>
     <row r="233">
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>0.001052262364082778</v>
+        <v>0.000928888430178553</v>
       </c>
     </row>
     <row r="234">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>0.0003006463897379365</v>
+        <v>0.0002064196511507896</v>
       </c>
     </row>
     <row r="235">
@@ -3413,7 +3413,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>0.004108833993085133</v>
+        <v>0.003870368459077304</v>
       </c>
     </row>
     <row r="236">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>0.006313574184496668</v>
+        <v>0.005470120755495923</v>
       </c>
     </row>
     <row r="237">
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>0.02495365034824874</v>
+        <v>0.02590566621942409</v>
       </c>
     </row>
     <row r="238">
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>5.010773162298943e-05</v>
+        <v>5.160491278769739e-05</v>
       </c>
     </row>
   </sheetData>
